--- a/doc/URL設計書.xlsx
+++ b/doc/URL設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\sawatch\github\GlucoseDashboard\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37425E40-1346-4B19-9D43-24143BE57145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0718494F-A31D-4AC1-94D7-2F9F78296697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{11A5C2B7-58AE-4B20-ABA9-0D443A0D82AF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{11A5C2B7-58AE-4B20-ABA9-0D443A0D82AF}"/>
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="85">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -92,13 +92,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>一覧</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>グラフ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -199,12 +192,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>一覧ページを表示</t>
-  </si>
-  <si>
-    <t>/graphs</t>
-  </si>
-  <si>
     <t>グラフページを表示</t>
   </si>
   <si>
@@ -241,49 +228,19 @@
     <t>パスワードリセットリンクを送信</t>
   </si>
   <si>
-    <t>/time-settings</t>
-  </si>
-  <si>
-    <t>時間帯設定の一覧を表示</t>
-  </si>
-  <si>
-    <t>/time-settings/create</t>
-  </si>
-  <si>
-    <t>時間帯設定の新規作成フォームを表示</t>
-  </si>
-  <si>
-    <t>時間帯設定の新規作成</t>
-  </si>
-  <si>
-    <t>/time-settings/{setting}/edit</t>
-  </si>
-  <si>
     <t>edit</t>
   </si>
   <si>
-    <t>時間帯設定の編集フォームを表示</t>
-  </si>
-  <si>
     <t>PUT/PATCH</t>
   </si>
   <si>
-    <t>/time-settings/{setting}</t>
-  </si>
-  <si>
     <t>update</t>
   </si>
   <si>
-    <t>時間帯設定の更新</t>
-  </si>
-  <si>
     <t>DELETE</t>
   </si>
   <si>
     <t>destroy</t>
-  </si>
-  <si>
-    <t>時間帯設定の削除</t>
   </si>
   <si>
     <t>/medication-settings</t>
@@ -335,20 +292,149 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>時間帯設定</t>
-    <rPh sb="0" eb="5">
-      <t>ジカンタイセッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/list</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>薬設定</t>
     <rPh sb="0" eb="3">
       <t>クスリセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/column-name-settings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/column-name-settings/create</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/column-name-settings/{setting}/edit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/column-name-settings/{setting}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目設定</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>血糖値入力一覧</t>
+    <rPh sb="0" eb="3">
+      <t>ケットウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/graphs</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/glucose-records</t>
+  </si>
+  <si>
+    <t>/glucose-records</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/glucose-records/create</t>
+  </si>
+  <si>
+    <t>/glucose-records/{setting}/edit</t>
+  </si>
+  <si>
+    <t>/glucose-records/{setting}</t>
+  </si>
+  <si>
+    <t>血糖値記録の入力フォームを表示</t>
+    <rPh sb="3" eb="5">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目名設定の一覧を表示</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目名設定の新規作成フォームを表示</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目名設定の新規作成</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目名設定の編集フォームを表示</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目名設定の更新</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目名設定の削除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>血糖値記録の一覧ページを表示</t>
+    <rPh sb="0" eb="3">
+      <t>ケットウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>血糖値記録の新規作成</t>
+    <rPh sb="3" eb="5">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>血糖値記録の編集フォームを表示</t>
+    <rPh sb="3" eb="5">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>血糖値記録の更新</t>
+    <rPh sb="3" eb="5">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>血糖値記録の削除</t>
+    <rPh sb="3" eb="5">
+      <t>キロク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -806,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA721588-41F7-4BCC-B29E-3B0A8847DE00}">
-  <dimension ref="B2:H55"/>
+  <dimension ref="B2:H60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -817,7 +903,7 @@
     <col min="1" max="1" width="1.5" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="32.75" customWidth="1"/>
+    <col min="4" max="4" width="39.58203125" customWidth="1"/>
     <col min="5" max="5" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="28.58203125" customWidth="1"/>
     <col min="7" max="7" width="36.33203125" customWidth="1"/>
@@ -826,7 +912,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="29" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -834,19 +920,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>5</v>
@@ -855,19 +941,19 @@
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="2"/>
       <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="F5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -877,64 +963,60 @@
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="2"/>
       <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="2"/>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="2"/>
-      <c r="C9" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>22</v>
@@ -943,7 +1025,7 @@
         <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -951,35 +1033,33 @@
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="2"/>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -987,52 +1067,54 @@
       <c r="B12" s="2"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2"/>
       <c r="C13" s="4" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="D14" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -1040,33 +1122,35 @@
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D16" s="4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -1074,52 +1158,52 @@
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="D18" s="4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="2"/>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -1127,7 +1211,7 @@
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>22</v>
@@ -1136,7 +1220,7 @@
         <v>33</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -1144,16 +1228,16 @@
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -1161,16 +1245,16 @@
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -1178,52 +1262,52 @@
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="2"/>
-      <c r="C24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="D24" s="4" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="2"/>
-      <c r="C25" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -1231,62 +1315,104 @@
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="2"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="2"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="2"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="2"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1352,60 +1478,105 @@
       <c r="G38" s="4"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="3" t="s">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="2"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="2"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="2"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="2"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="2"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3" t="s">
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="H51" s="6">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H56" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="H52" s="6">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H57" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="H53" s="6">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H58" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="H54" s="6">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H59" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="H55" s="6">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H60" s="6">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H38 G5:G26" xr:uid="{063BA882-1D22-49FF-B7F8-4A28537B17C9}">
-      <formula1>$H$51:$H$55</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H43" xr:uid="{063BA882-1D22-49FF-B7F8-4A28537B17C9}">
+      <formula1>$H$56:$H$60</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1424,12 +1595,12 @@
   <sheetData>
     <row r="5" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/doc/URL設計書.xlsx
+++ b/doc/URL設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\sawatch\github\GlucoseDashboard\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\01_勉強\01_Github\glucose-dashboard-doc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0718494F-A31D-4AC1-94D7-2F9F78296697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC03BFB-9D95-46E5-BEA2-B3F8E97A099C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{11A5C2B7-58AE-4B20-ABA9-0D443A0D82AF}"/>
+    <workbookView xWindow="4180" yWindow="0" windowWidth="28800" windowHeight="20970" xr2:uid="{11A5C2B7-58AE-4B20-ABA9-0D443A0D82AF}"/>
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="84">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -195,27 +195,18 @@
     <t>グラフページを表示</t>
   </si>
   <si>
-    <t>/accounts/create</t>
-  </si>
-  <si>
     <t>create</t>
   </si>
   <si>
     <t>アカウント新規作成フォームを表示</t>
   </si>
   <si>
-    <t>/accounts</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>アカウント新規作成</t>
   </si>
   <si>
-    <t>/forgot-password</t>
-  </si>
-  <si>
     <t>showLinkRequestForm</t>
   </si>
   <si>
@@ -243,37 +234,22 @@
     <t>destroy</t>
   </si>
   <si>
-    <t>/medication-settings</t>
-  </si>
-  <si>
     <t>薬設定の一覧を表示</t>
   </si>
   <si>
-    <t>/medication-settings/create</t>
-  </si>
-  <si>
     <t>薬設定の新規作成フォームを表示</t>
   </si>
   <si>
     <t>薬設定の新規作成</t>
   </si>
   <si>
-    <t>/medication-settings/{setting}/edit</t>
-  </si>
-  <si>
     <t>薬設定の編集フォームを表示</t>
   </si>
   <si>
-    <t>/medication-settings/{setting}</t>
-  </si>
-  <si>
     <t>薬設定の更新</t>
   </si>
   <si>
     <t>薬設定の削除</t>
-  </si>
-  <si>
-    <t>/password-settings</t>
   </si>
   <si>
     <t>showForm</t>
@@ -299,22 +275,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/column-name-settings</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/column-name-settings/create</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/column-name-settings/{setting}/edit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/column-name-settings/{setting}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>項目設定</t>
     <rPh sb="0" eb="2">
       <t>コウモク</t>
@@ -338,26 +298,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/graphs</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/glucose-records</t>
-  </si>
-  <si>
-    <t>/glucose-records</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/glucose-records/create</t>
-  </si>
-  <si>
-    <t>/glucose-records/{setting}/edit</t>
-  </si>
-  <si>
-    <t>/glucose-records/{setting}</t>
-  </si>
-  <si>
     <t>血糖値記録の入力フォームを表示</t>
     <rPh sb="3" eb="5">
       <t>キロク</t>
@@ -437,6 +377,57 @@
       <t>キロク</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/users/{uuid}/glucose-records</t>
+  </si>
+  <si>
+    <t>/users/{uuid}/graphs</t>
+  </si>
+  <si>
+    <t>/users/{uuid}/accounts</t>
+  </si>
+  <si>
+    <t>/users/{uuid}/forgot-password</t>
+  </si>
+  <si>
+    <t>/users/{uuid}/column-name-settings</t>
+  </si>
+  <si>
+    <t>/users/{uuid}/medication-settings</t>
+  </si>
+  <si>
+    <t>/users/{uuid}/password-settings</t>
+  </si>
+  <si>
+    <t>/users/{uuid}/glucose-records/create</t>
+  </si>
+  <si>
+    <t>/users/{uuid}/glucose-records/{setting}/edit</t>
+  </si>
+  <si>
+    <t>/users/{uuid}/glucose-records/{setting}</t>
+  </si>
+  <si>
+    <t>/users/{uuid}/accounts/create</t>
+  </si>
+  <si>
+    <t>/users/{uuid}/column-name-settings/create</t>
+  </si>
+  <si>
+    <t>/users/{uuid}/column-name-settings/{setting}/edit</t>
+  </si>
+  <si>
+    <t>/users/{uuid}/column-name-settings/{setting}</t>
+  </si>
+  <si>
+    <t>/users/{uuid}/medication-settings/create</t>
+  </si>
+  <si>
+    <t>/users/{uuid}/medication-settings/{setting}/edit</t>
+  </si>
+  <si>
+    <t>/users/{uuid}/medication-settings/{setting}</t>
   </si>
 </sst>
 </file>
@@ -895,7 +886,7 @@
   <dimension ref="B2:H60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D7" sqref="D7:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -903,7 +894,7 @@
     <col min="1" max="1" width="1.5" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="39.58203125" customWidth="1"/>
+    <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="28.58203125" customWidth="1"/>
     <col min="7" max="7" width="36.33203125" customWidth="1"/>
@@ -979,10 +970,10 @@
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="2"/>
       <c r="C7" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>21</v>
@@ -991,7 +982,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -999,16 +990,16 @@
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -1016,16 +1007,16 @@
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -1033,16 +1024,16 @@
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -1050,16 +1041,16 @@
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -1067,16 +1058,16 @@
       <c r="B12" s="2"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -1086,7 +1077,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>21</v>
@@ -1102,19 +1093,19 @@
     <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="2"/>
       <c r="C14" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -1122,16 +1113,16 @@
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1141,16 +1132,16 @@
         <v>11</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -1158,26 +1149,26 @@
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="2"/>
       <c r="C18" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>21</v>
@@ -1186,7 +1177,7 @@
         <v>27</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -1194,16 +1185,16 @@
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -1211,16 +1202,16 @@
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -1228,16 +1219,16 @@
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -1245,16 +1236,16 @@
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -1262,26 +1253,26 @@
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="2"/>
       <c r="C24" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>21</v>
@@ -1290,7 +1281,7 @@
         <v>27</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -1298,16 +1289,16 @@
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -1315,16 +1306,16 @@
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -1332,16 +1323,16 @@
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -1349,16 +1340,16 @@
       <c r="B28" s="2"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -1366,16 +1357,16 @@
       <c r="B29" s="2"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -1385,16 +1376,16 @@
         <v>8</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -1402,16 +1393,16 @@
       <c r="B31" s="2"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H31" s="2"/>
     </row>
